--- a/script_root/examples/AutoConfig/Data/input/excel/config_base/config_base.xlsx
+++ b/script_root/examples/AutoConfig/Data/input/excel/config_base/config_base.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="27195" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigBase" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+  <si>
+    <t>ConfigEx.ConfigExtra:extra_data</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
   <si>
     <t>int_val</t>
   </si>
@@ -25,7 +31,6 @@
   </si>
   <si>
     <t>int_vec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int_int_map</t>
@@ -37,52 +42,61 @@
     <t>int_float_map_vec</t>
   </si>
   <si>
+    <t>str_val</t>
+  </si>
+  <si>
+    <t>raw_val</t>
+  </si>
+  <si>
+    <t>int;key</t>
+  </si>
+  <si>
+    <t>float;group</t>
+  </si>
+  <si>
     <t>[int]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;int, int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[int]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;int, [float]&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;key;group;</t>
+  </si>
+  <si>
+    <t>raw</t>
   </si>
   <si>
     <t>1;2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1:2;3:4;5:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1|2|3;4|5|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1:100|101|102;2:201|202|203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b</t>
+  </si>
+  <si>
+    <t>1;2;3;5</t>
+  </si>
+  <si>
+    <t>1:2;3:4;5:7</t>
   </si>
   <si>
     <t>1|2|3;4|5|7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1:100|101|102;2:201|202|204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2;3:4;5:7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;2;3;6</t>
@@ -191,62 +205,373 @@
   </si>
   <si>
     <t>1:100|101|102;2:201|202|213</t>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float;group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int;key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigEx.ConfigExtra:extra_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string;key;group;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -254,25 +579,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -555,19 +1171,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="35.25" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -575,375 +1191,421 @@
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="35.125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>1024</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1023</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
       </c>
       <c r="G13">
         <v>234</v>
       </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>3024</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2023</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
       <c r="G14">
         <v>2345</v>
       </c>
+      <c r="H14">
+        <v>2345</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>5024</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>3023</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
         <v>4456</v>
       </c>
+      <c r="H15">
+        <v>4456</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>7024</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>4023</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
         <v>6567</v>
       </c>
+      <c r="H16">
+        <v>6567</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>9024</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5023</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>8678</v>
       </c>
+      <c r="H17">
+        <v>8678</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>11024</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>6023</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
         <v>10789</v>
       </c>
+      <c r="H18">
+        <v>10789</v>
+      </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>13024</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>7023</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
         <v>12900</v>
       </c>
+      <c r="H19">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>15024</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>8023</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20">
         <v>15011</v>
       </c>
+      <c r="H20">
+        <v>15011</v>
+      </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>17024</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>9023</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21">
         <v>17122</v>
       </c>
+      <c r="H21">
+        <v>17122</v>
+      </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>19024</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>10023</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
         <v>19233</v>
       </c>
+      <c r="H22">
+        <v>19233</v>
+      </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>21024</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>11023</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <v>21344</v>
+      </c>
+      <c r="H23">
         <v>21344</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>